--- a/biology/Botanique/The_Meadows/The_Meadows.xlsx
+++ b/biology/Botanique/The_Meadows/The_Meadows.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 The Meadows est un jardin public à vocation de détente et de pratique de sports situé dans la ville écossaise d'Édimbourg, au Royaume-Uni.
@@ -513,7 +525,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Situé à l'emplacement d'un ancien loch, il devient le lieu d'entraînement habituel de la Royal Company of Archers. En 1827, un décret du Parlement en fait une zone protégée, en y interdisant les constructions immobilières (sauf pour la construction d'un pavillon de verre pour l'exposition internationale d'Édimbourg en 1886 (en)).
 Dans les années 1870, The Meadows devient un des hauts lieux du développement du football en Écosse, accueillant les premières rencontres de nombreux clubs d'Édimbourg, notamment St Bernard's mais aussi Heart of Midlothian et Hibernian qui deviendront par la suite les deux clubs phares de la capitale écossaise. Leur premier derby s'y déroule d'ailleurs le 25 décembre 1875. Une plaque a été installée pour marquer l'emplacement de ce match. 
